--- a/diod.xlsx
+++ b/diod.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">U_a1</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t xml:space="preserve">I_анода100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I_накала</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
   </si>
   <si>
     <t xml:space="preserve">U_накала1</t>
@@ -211,13 +217,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X36"/>
+  <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10:B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA1" activeCellId="0" sqref="AA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -292,6 +298,12 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="Z1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -366,6 +378,12 @@
       <c r="X2" s="1" t="n">
         <v>10.55</v>
       </c>
+      <c r="Z2" s="0" t="n">
+        <v>662.2</v>
+      </c>
+      <c r="AA2" s="0" t="n">
+        <v>1600</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -375,7 +393,7 @@
         <v>0.3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>5.1</v>
@@ -384,7 +402,7 @@
         <v>2.98</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>10.1</v>
@@ -393,7 +411,7 @@
         <v>2.7</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J3" s="1" t="n">
         <v>9.6</v>
@@ -402,7 +420,7 @@
         <v>2.61</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M3" s="1" t="n">
         <v>10.9</v>
@@ -411,7 +429,7 @@
         <v>3.27</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="1" t="n">
         <v>1.489</v>
@@ -430,6 +448,12 @@
       </c>
       <c r="X3" s="1" t="n">
         <v>9.57</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>747.3</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <v>1700</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -496,6 +520,12 @@
       <c r="X4" s="1" t="n">
         <v>8.63</v>
       </c>
+      <c r="Z4" s="0" t="n">
+        <v>836</v>
+      </c>
+      <c r="AA4" s="0" t="n">
+        <v>1800</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -546,6 +576,12 @@
       <c r="X5" s="1" t="n">
         <v>7.5</v>
       </c>
+      <c r="Z5" s="0" t="n">
+        <v>927.4</v>
+      </c>
+      <c r="AA5" s="0" t="n">
+        <v>1900</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -596,6 +632,12 @@
       <c r="X6" s="1" t="n">
         <v>6.62</v>
       </c>
+      <c r="Z6" s="0" t="n">
+        <v>1022</v>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -646,6 +688,12 @@
       <c r="X7" s="1" t="n">
         <v>5.98</v>
       </c>
+      <c r="Z7" s="0" t="n">
+        <v>1119</v>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <v>2100</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -696,6 +744,12 @@
       <c r="X8" s="1" t="n">
         <v>5.37</v>
       </c>
+      <c r="Z8" s="0" t="n">
+        <v>1217</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <v>2200</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -746,6 +800,12 @@
       <c r="X9" s="1" t="n">
         <v>4.88</v>
       </c>
+      <c r="Z9" s="0" t="n">
+        <v>1319</v>
+      </c>
+      <c r="AA9" s="0" t="n">
+        <v>2300</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
@@ -796,6 +856,12 @@
       <c r="X10" s="1" t="n">
         <v>4.48</v>
       </c>
+      <c r="Z10" s="0" t="n">
+        <v>1422</v>
+      </c>
+      <c r="AA10" s="0" t="n">
+        <v>2400</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
@@ -846,6 +912,12 @@
       <c r="X11" s="1" t="n">
         <v>4.13</v>
       </c>
+      <c r="Z11" s="0" t="n">
+        <v>1526</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <v>2500</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
@@ -896,6 +968,12 @@
       <c r="X12" s="1" t="n">
         <v>3.78</v>
       </c>
+      <c r="Z12" s="0" t="n">
+        <v>1632</v>
+      </c>
+      <c r="AA12" s="0" t="n">
+        <v>2600</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
@@ -946,6 +1024,12 @@
       <c r="X13" s="1" t="n">
         <v>3.39</v>
       </c>
+      <c r="Z13" s="0" t="n">
+        <v>1741</v>
+      </c>
+      <c r="AA13" s="0" t="n">
+        <v>2700</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
@@ -996,6 +1080,12 @@
       <c r="X14" s="1" t="n">
         <v>2.59</v>
       </c>
+      <c r="Z14" s="0" t="n">
+        <v>1849</v>
+      </c>
+      <c r="AA14" s="0" t="n">
+        <v>2800</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -1046,6 +1136,12 @@
       <c r="X15" s="1" t="n">
         <v>3.04</v>
       </c>
+      <c r="Z15" s="0" t="n">
+        <v>1961</v>
+      </c>
+      <c r="AA15" s="0" t="n">
+        <v>2900</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
@@ -1096,6 +1192,12 @@
       <c r="X16" s="1" t="n">
         <v>2.36</v>
       </c>
+      <c r="Z16" s="0" t="n">
+        <v>2072</v>
+      </c>
+      <c r="AA16" s="0" t="n">
+        <v>3000</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
@@ -1651,8 +1753,7 @@
         <v>1.037</v>
       </c>
       <c r="X33" s="1" t="n">
-        <f aca="false">+Q13</f>
-        <v>1.371</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/diod.xlsx
+++ b/diod.xlsx
@@ -219,11 +219,11 @@
   </sheetPr>
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA1" activeCellId="0" sqref="AA1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M11" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P35" activeCellId="0" sqref="P35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -298,10 +298,10 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -378,10 +378,10 @@
       <c r="X2" s="1" t="n">
         <v>10.55</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="Z2" s="1" t="n">
         <v>662.2</v>
       </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AA2" s="1" t="n">
         <v>1600</v>
       </c>
     </row>
@@ -449,10 +449,10 @@
       <c r="X3" s="1" t="n">
         <v>9.57</v>
       </c>
-      <c r="Z3" s="0" t="n">
+      <c r="Z3" s="1" t="n">
         <v>747.3</v>
       </c>
-      <c r="AA3" s="0" t="n">
+      <c r="AA3" s="1" t="n">
         <v>1700</v>
       </c>
     </row>
@@ -520,10 +520,10 @@
       <c r="X4" s="1" t="n">
         <v>8.63</v>
       </c>
-      <c r="Z4" s="0" t="n">
+      <c r="Z4" s="1" t="n">
         <v>836</v>
       </c>
-      <c r="AA4" s="0" t="n">
+      <c r="AA4" s="1" t="n">
         <v>1800</v>
       </c>
     </row>
@@ -576,10 +576,10 @@
       <c r="X5" s="1" t="n">
         <v>7.5</v>
       </c>
-      <c r="Z5" s="0" t="n">
+      <c r="Z5" s="1" t="n">
         <v>927.4</v>
       </c>
-      <c r="AA5" s="0" t="n">
+      <c r="AA5" s="1" t="n">
         <v>1900</v>
       </c>
     </row>
@@ -632,10 +632,10 @@
       <c r="X6" s="1" t="n">
         <v>6.62</v>
       </c>
-      <c r="Z6" s="0" t="n">
+      <c r="Z6" s="1" t="n">
         <v>1022</v>
       </c>
-      <c r="AA6" s="0" t="n">
+      <c r="AA6" s="1" t="n">
         <v>2000</v>
       </c>
     </row>
@@ -688,10 +688,10 @@
       <c r="X7" s="1" t="n">
         <v>5.98</v>
       </c>
-      <c r="Z7" s="0" t="n">
+      <c r="Z7" s="1" t="n">
         <v>1119</v>
       </c>
-      <c r="AA7" s="0" t="n">
+      <c r="AA7" s="1" t="n">
         <v>2100</v>
       </c>
     </row>
@@ -744,10 +744,10 @@
       <c r="X8" s="1" t="n">
         <v>5.37</v>
       </c>
-      <c r="Z8" s="0" t="n">
+      <c r="Z8" s="1" t="n">
         <v>1217</v>
       </c>
-      <c r="AA8" s="0" t="n">
+      <c r="AA8" s="1" t="n">
         <v>2200</v>
       </c>
     </row>
@@ -800,10 +800,10 @@
       <c r="X9" s="1" t="n">
         <v>4.88</v>
       </c>
-      <c r="Z9" s="0" t="n">
+      <c r="Z9" s="1" t="n">
         <v>1319</v>
       </c>
-      <c r="AA9" s="0" t="n">
+      <c r="AA9" s="1" t="n">
         <v>2300</v>
       </c>
     </row>
@@ -856,10 +856,10 @@
       <c r="X10" s="1" t="n">
         <v>4.48</v>
       </c>
-      <c r="Z10" s="0" t="n">
+      <c r="Z10" s="1" t="n">
         <v>1422</v>
       </c>
-      <c r="AA10" s="0" t="n">
+      <c r="AA10" s="1" t="n">
         <v>2400</v>
       </c>
     </row>
@@ -912,10 +912,10 @@
       <c r="X11" s="1" t="n">
         <v>4.13</v>
       </c>
-      <c r="Z11" s="0" t="n">
+      <c r="Z11" s="1" t="n">
         <v>1526</v>
       </c>
-      <c r="AA11" s="0" t="n">
+      <c r="AA11" s="1" t="n">
         <v>2500</v>
       </c>
     </row>
@@ -968,10 +968,10 @@
       <c r="X12" s="1" t="n">
         <v>3.78</v>
       </c>
-      <c r="Z12" s="0" t="n">
+      <c r="Z12" s="1" t="n">
         <v>1632</v>
       </c>
-      <c r="AA12" s="0" t="n">
+      <c r="AA12" s="1" t="n">
         <v>2600</v>
       </c>
     </row>
@@ -1024,10 +1024,10 @@
       <c r="X13" s="1" t="n">
         <v>3.39</v>
       </c>
-      <c r="Z13" s="0" t="n">
+      <c r="Z13" s="1" t="n">
         <v>1741</v>
       </c>
-      <c r="AA13" s="0" t="n">
+      <c r="AA13" s="1" t="n">
         <v>2700</v>
       </c>
     </row>
@@ -1080,10 +1080,10 @@
       <c r="X14" s="1" t="n">
         <v>2.59</v>
       </c>
-      <c r="Z14" s="0" t="n">
+      <c r="Z14" s="1" t="n">
         <v>1849</v>
       </c>
-      <c r="AA14" s="0" t="n">
+      <c r="AA14" s="1" t="n">
         <v>2800</v>
       </c>
     </row>
@@ -1136,10 +1136,10 @@
       <c r="X15" s="1" t="n">
         <v>3.04</v>
       </c>
-      <c r="Z15" s="0" t="n">
+      <c r="Z15" s="1" t="n">
         <v>1961</v>
       </c>
-      <c r="AA15" s="0" t="n">
+      <c r="AA15" s="1" t="n">
         <v>2900</v>
       </c>
     </row>
@@ -1192,10 +1192,10 @@
       <c r="X16" s="1" t="n">
         <v>2.36</v>
       </c>
-      <c r="Z16" s="0" t="n">
+      <c r="Z16" s="1" t="n">
         <v>2072</v>
       </c>
-      <c r="AA16" s="0" t="n">
+      <c r="AA16" s="1" t="n">
         <v>3000</v>
       </c>
     </row>
@@ -1395,7 +1395,7 @@
         <v>9.35</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>199.9</v>
+        <v>120</v>
       </c>
       <c r="K21" s="1" t="n">
         <v>7.25</v>
